--- a/Compass/bin/Debug/CeilingPackingList.xlsx
+++ b/Compass/bin/Debug/CeilingPackingList.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A028C00-BCA3-4180-B53F-615E45810368}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BA342-08B2-4F58-A429-137D7DB660A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="CeilingPackingList" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CeilingPackingList!$A:$K</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,15 +27,113 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Release Date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Engineer: </t>
+  </si>
+  <si>
+    <t>装箱号
+(Pallet No.)</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区域
+(Location)</t>
+  </si>
+  <si>
+    <t>部件描述
+Part Decription</t>
+  </si>
+  <si>
+    <t>部件编号
+Part number</t>
+  </si>
+  <si>
+    <t>数量
+QTY.</t>
+  </si>
+  <si>
+    <t>单位
+Unit</t>
+  </si>
+  <si>
+    <t>长
+Length</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>宽
+Width</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>高
+Height</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质
+Material</t>
+  </si>
+  <si>
+    <t>备注
+Remark</t>
+  </si>
+  <si>
+    <t>天花烟罩发货清单(Ceiling Hood Packing List)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -51,14 +152,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{D3F3DE5B-8D77-4CB6-BECC-42A6910BD2C5}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -337,12 +499,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="18.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="18.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="4"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:K2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Compass/bin/Debug/CeilingPackingList.xlsx
+++ b/Compass/bin/Debug/CeilingPackingList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Compass\Compass\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BA342-08B2-4F58-A429-137D7DB660A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C92A75A-A133-4CA0-A7B0-D507EF9B0BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -504,7 +504,7 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -642,5 +642,8 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="99" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>